--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,6 +337,30 @@
   </si>
   <si>
     <t>9/19,21/2023</t>
+  </si>
+  <si>
+    <t>9/29 , 10/5,6/2023</t>
+  </si>
+  <si>
+    <t>10/12,13/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
+  </si>
+  <si>
+    <t>11/20-24/2023</t>
+  </si>
+  <si>
+    <t>11/14,16,17/2023</t>
+  </si>
+  <si>
+    <t>12/11,12,13,14,15/2023</t>
+  </si>
+  <si>
+    <t>12/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -721,14 +745,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -738,9 +765,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,7 +1295,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1338,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1402,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1462,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1528,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1591,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1689,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1748,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1813,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1856,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1931,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2117,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2183,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2241,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2307,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2363,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2438,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2481,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2547,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2603,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3052,12 +3076,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K151"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,14 +3111,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3105,14 +3129,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3125,16 +3149,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3160,18 +3184,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3218,7 +3242,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3228,7 +3252,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4756,13 +4780,15 @@
         <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4774,13 +4800,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4788,7 +4816,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4804,7 +4834,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4820,7 +4852,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45322</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4836,7 +4870,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45351</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4852,7 +4888,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45382</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4868,7 +4906,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45412</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4884,7 +4924,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45443</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4900,7 +4942,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45473</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4916,7 +4960,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45504</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4932,7 +4978,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45535</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4948,7 +4996,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45565</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4964,7 +5014,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45596</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5812,34 +5864,50 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="43"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="43"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5875,9 +5943,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5907,14 +5975,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5925,14 +5993,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5945,16 +6013,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5980,18 +6048,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6038,7 +6106,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.957999999999998</v>
+        <v>36.957999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6048,7 +6116,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>118.542</v>
+        <v>106.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7553,7 +7621,9 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
@@ -7562,14 +7632,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="39">
+        <v>3</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
@@ -7578,14 +7656,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="39"/>
+      <c r="H77" s="39">
+        <v>2</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
@@ -7594,16 +7678,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="39">
+        <v>2</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>5</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -7613,11 +7707,15 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -7626,16 +7724,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>3</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>5</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -7645,11 +7753,15 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -7658,10 +7770,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
@@ -8692,7 +8808,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>147.5</v>
+        <v>152.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
